--- a/medicine/Enfance/Sarah_Cohen-Scali/Sarah_Cohen-Scali.xlsx
+++ b/medicine/Enfance/Sarah_Cohen-Scali/Sarah_Cohen-Scali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Cohen-Scali, née le 16 octobre 1958 est une écrivaine française. Elle publie également sous le pseudonyme de Sarah K.[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Cohen-Scali, née le 16 octobre 1958 est une écrivaine française. Elle publie également sous le pseudonyme de Sarah K..
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle possède une licence en philosophie et a suivi des études de lettres et d'art dramatique[2],[3].
-Elle publie son premier ouvrage à la fin des années 1980. Auteure de plus d'une soixantaine d'ouvrages, dont une vingtaine sous le pseudonyme de Sarah K. entre 2002 et 2013[1], elle est lauréate de plusieurs prix de littérature jeunesse.
-Parmi ses romans jeunesse, elle écrit des « thrillers »[4],[5] dont Gueule de loup[4] en 2010 ou Phobie[5] en 2017, ou des polars, dont Phobie, pour lequel elle obtient le Prix Polar du roman jeunesse 2017[6] au Festival Polar de Cognac.
-En 2012 est publié son roman Max[7], qui évoque la Seconde guerre mondiale et le nazisme. Pour l'avis de le lecture de Ricochet : « Ce livre de Sarah Cohen-Scali constitue un roman historique d’un genre nouveau dans la littérature jeunesse en ce sens où une importante documentation vient nourrir une fiction seule apte à rendre compte d’un pan terrifiant de l’histoire européenne du XXème siècle. Comment par le détour de la fiction, le lecteur parvient-il à prendre conscience d’une réalité historique effrayante et encore méconnue ? Comment la fiction devient-elle pour l’auteure de ce roman une arme efficace de dénonciation ? »[8]. L'ouvrage est récompensé de plusieurs prix jeunesse, dont en 2013, le Prix Sorcières[9], catégorie « Roman pour adolescents », et le Prix jeunesse des libraires du Québec[10].
-En 2018 est publié son roman jeunesse Orphelins 88[11], et en 2019  Août 61, autour du personnage de Ben, « Atteint de la maladie d’Alzheimer[12] » qui était en 1945 « un enfant juif rescapé des camps[12] » . Selon La Revue des livres pour enfants, avec cet ouvrage, « l'autrice clôt ainsi son triptyque sur les séquelles de la Seconde Guerre mondiale entamé avec Max (2012) et poursuivi avec Orphelins 88 (2018)[13] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle possède une licence en philosophie et a suivi des études de lettres et d'art dramatique,.
+Elle publie son premier ouvrage à la fin des années 1980. Auteure de plus d'une soixantaine d'ouvrages, dont une vingtaine sous le pseudonyme de Sarah K. entre 2002 et 2013, elle est lauréate de plusieurs prix de littérature jeunesse.
+Parmi ses romans jeunesse, elle écrit des « thrillers », dont Gueule de loup en 2010 ou Phobie en 2017, ou des polars, dont Phobie, pour lequel elle obtient le Prix Polar du roman jeunesse 2017 au Festival Polar de Cognac.
+En 2012 est publié son roman Max, qui évoque la Seconde guerre mondiale et le nazisme. Pour l'avis de le lecture de Ricochet : « Ce livre de Sarah Cohen-Scali constitue un roman historique d’un genre nouveau dans la littérature jeunesse en ce sens où une importante documentation vient nourrir une fiction seule apte à rendre compte d’un pan terrifiant de l’histoire européenne du XXème siècle. Comment par le détour de la fiction, le lecteur parvient-il à prendre conscience d’une réalité historique effrayante et encore méconnue ? Comment la fiction devient-elle pour l’auteure de ce roman une arme efficace de dénonciation ? ». L'ouvrage est récompensé de plusieurs prix jeunesse, dont en 2013, le Prix Sorcières, catégorie « Roman pour adolescents », et le Prix jeunesse des libraires du Québec.
+En 2018 est publié son roman jeunesse Orphelins 88, et en 2019  Août 61, autour du personnage de Ben, « Atteint de la maladie d’Alzheimer » qui était en 1945 « un enfant juif rescapé des camps » . Selon La Revue des livres pour enfants, avec cet ouvrage, « l'autrice clôt ainsi son triptyque sur les séquelles de la Seconde Guerre mondiale entamé avec Max (2012) et poursuivi avec Orphelins 88 (2018) ».
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous son nom
-La Puce, détective rusé,  ill. par Christophe Besse, Casterman, 1989
+          <t>Sous son nom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Puce, détective rusé,  ill. par Christophe Besse, Casterman, 1989
 Histoires que j'aime beaucoup, beaucoup,  ill. de Annick Delhumeau, Larousse, 1991
 Histoires que j'aime passionnément,  ill. de Annick Delhumeau, Larousse, 1991
 Danger d'amour,  ill. par Catherine Louis, Casterman, 1991
@@ -586,62 +605,98 @@
 Un parfum de meurtre, Rageot, 2007
 Mauvais délires, Flammarion, 2008
 Les Dents de la nuit, Hachette Livre, 2009
-Gueule de loup[4], Éditions de l'Archipel, 2010
-Max[8], 2012 (plusieurs prix littéraires dont le prix Sorcières[9] 2013, et le Prix des libraires du Québec[9] 2013), Gallimard Jeunesse, coll.
-Phobie[5], Gulf stream Éditeur, 2017 (Prix meilleur Polar jeunesse, Cognac 2017)
+Gueule de loup, Éditions de l'Archipel, 2010
+Max, 2012 (plusieurs prix littéraires dont le prix Sorcières 2013, et le Prix des libraires du Québec 2013), Gallimard Jeunesse, coll.
+Phobie, Gulf stream Éditeur, 2017 (Prix meilleur Polar jeunesse, Cognac 2017)
 Gingo, Gulf stream Éditeur, 2018
-Orphelins 88[11], Robert Laffont, 2018
-Août 61[12],[13], Albin Michel, 2019
+Orphelins 88, Robert Laffont, 2018
+Août 61 Albin Michel, 2019
 Le dernier petit singe, Casterman, 2020
-L'Oeil de la mort, les Éditions du 38, 2022
-Sous le pseudonyme de Sarah K.
-Une vingtaine d'ouvrages[1] dont :
+L'Oeil de la mort, les Éditions du 38, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_Cohen-Scali</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Cohen-Scali</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Sarah K.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une vingtaine d'ouvrages dont :
 Connexions dangereuses, Flammarion, 2002 (Prix Farniente 2004) Rééditions sous son nom en 2011 et 2018.
 J'suis pas à la mode !, illustrations Olivier Tallec, Père Castor-Flammarion, 2002
 Collapsus, Rageot, 2003
 Tu te maries et moi j'aime, Rageot, 2005
- Un parfum de meurtre[14], Rageot, 2007</t>
+ Un parfum de meurtre, Rageot, 2007</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sarah_Cohen-Scali</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sarah_Cohen-Scali</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Ados Rennes/Ille-et-Vilaine[9] 1995 pour  Arthur Rimbaud : le voleur de feu
- Prix de la Semaine Paul Hurtmans du livre de jeunesse[9] 2002 pour Vue sur crime 
- Prix Farniente 2004[9],[15] pour Connexions dangereuses (sous le pseudonyme de Sarah K.)
-Prix Les Mordus du Polar[9] 2006 pour Créature contre créateur (sous le pseudonyme de Sarah K.)
-Prix Gayant Lecture[9] 2006 pour Tu te maries et moi j’aime (sous le pseudonyme de Sarah K.)
- Prix jeunesse des libraires du Québec[9] 2013, catégorie Hors Québec , pour Max
-Prix Sorcières[9] 2013, catégorie Roman ado, pour Max
-Prix Tatoulu[9] 2014 pour Max
-Prix des dévoreurs de livres[9] 2014 pour Max
-Prix Polar du roman jeunesse 2017[6], Festival Polar de Cognac, pour Phobie
-Prix Livrentête[9] 2018 pour Phobie
-Prix du roman historique jeunesse[9] 2021 pour Août 61</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Ados Rennes/Ille-et-Vilaine 1995 pour  Arthur Rimbaud : le voleur de feu
+ Prix de la Semaine Paul Hurtmans du livre de jeunesse 2002 pour Vue sur crime 
+ Prix Farniente 2004, pour Connexions dangereuses (sous le pseudonyme de Sarah K.)
+Prix Les Mordus du Polar 2006 pour Créature contre créateur (sous le pseudonyme de Sarah K.)
+Prix Gayant Lecture 2006 pour Tu te maries et moi j’aime (sous le pseudonyme de Sarah K.)
+ Prix jeunesse des libraires du Québec 2013, catégorie Hors Québec , pour Max
+Prix Sorcières 2013, catégorie Roman ado, pour Max
+Prix Tatoulu 2014 pour Max
+Prix des dévoreurs de livres 2014 pour Max
+Prix Polar du roman jeunesse 2017, Festival Polar de Cognac, pour Phobie
+Prix Livrentête 2018 pour Phobie
+Prix du roman historique jeunesse 2021 pour Août 61</t>
         </is>
       </c>
     </row>
